--- a/tables/TableS4_modeling_differences.xlsx
+++ b/tables/TableS4_modeling_differences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6D52C-465E-3A43-A2C0-B45AEE549C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7B6D2-5C4C-3D4C-BAF4-B669334A4657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{FF5440E8-AEB3-AD48-8A0E-3523D3669D66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{FF5440E8-AEB3-AD48-8A0E-3523D3669D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Parameter</t>
   </si>
@@ -174,13 +174,25 @@
     <t>RCPs 2.6, 4.5, 6.0, and 8.5</t>
   </si>
   <si>
-    <t>189 (136 finfish, 53 bivalves)</t>
-  </si>
-  <si>
     <t>2021-2030, 2051-2060, 2091-2100</t>
   </si>
   <si>
     <t>Costello et al. (2020)</t>
+  </si>
+  <si>
+    <t>144 (122 finfish, 22 bivalves)</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>EEZs, minus MPAs/shipping/oil</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Depth, current velocity, wave intensity</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE642D8-0B86-9246-B488-743D2C72EAD7}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -666,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -700,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,7 +803,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>21</v>
@@ -822,41 +834,41 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>46</v>
@@ -865,32 +877,32 @@
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>26</v>
@@ -902,6 +914,23 @@
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
